--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,29 +487,29 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>20576</v>
+        <v>2651</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>77.2</v>
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.24.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>364</v>
+        <v>797</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5">
@@ -519,235 +519,239 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7877</v>
+        <v>772</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.3</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2839</v>
+        <v>617</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3448</v>
+        <v>410</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.24.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>2274</v>
+        <v>1358</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>94.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1321</v>
+        <v>205</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.3.3</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1719</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.3.3</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>520</v>
+        <v>846</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>97.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 7260 - 17.15.0.5</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>71</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.3.3</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>312</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.3.3</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>3749</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>98.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.32.1</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>47898</v>
-      </c>
-    </row>
+      <c r="B12" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
     <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="n">
+        <v>56018</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>34244</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v/>
+      </c>
+    </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>161874</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>52096</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>29259</v>
+        <v>13028</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="n">
         <v/>
@@ -756,11 +760,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>13028</v>
+        <v>19910</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
@@ -777,7 +781,7 @@
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>392601</v>
+        <v>442178</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -792,30 +796,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>19910</v>
+        <v>77849</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>74604</v>
+        <v>170510</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
@@ -823,18 +827,18 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>64199</v>
+        <v>141909</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -842,18 +846,18 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>33050</v>
+        <v>59673</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -861,37 +865,37 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>167965</v>
+        <v>196758</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>50749</v>
+        <v>40159</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -899,18 +903,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-04-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -918,18 +922,18 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>179007</v>
+        <v>48540</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -937,37 +941,37 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>39767</v>
+        <v>184564</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>107862</v>
+        <v>20227</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -975,18 +979,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>56018</v>
+        <v>34065</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -994,37 +998,37 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>161874</v>
+        <v>29259</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>134716</v>
+        <v>119424</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1032,18 +1036,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2018-05-26</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>20227</v>
+        <v>14221</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1051,18 +1055,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>34065</v>
+        <v>23765</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1070,129 +1074,15 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 7260 - 18.33.15.1</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>81630</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>112242</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="n">
-        <v>23765</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2651</v>
+        <v>2530</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -506,42 +506,42 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.5</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>772</v>
+        <v>553</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>617</v>
+        <v>670</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1358</v>
+        <v>1204</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>96.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -605,7 +605,7 @@
         <v>123</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>846</v>
+        <v>727</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7779</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="13"/>
@@ -675,15 +675,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>56018</v>
+        <v>29259</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E20" s="4" t="n">
         <v/>
@@ -692,11 +692,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>34244</v>
+        <v>13028</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
@@ -709,79 +709,87 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>161874</v>
+        <v>445055</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>52096</v>
+        <v>19910</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E23" s="4" t="n">
-        <v/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>13028</v>
+        <v>77849</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>19910</v>
+        <v>34244</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>442178</v>
+        <v>170510</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -789,75 +797,75 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>77849</v>
+        <v>52096</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>170510</v>
+        <v>59673</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>141909</v>
+        <v>201061</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>59673</v>
+        <v>40159</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -865,18 +873,18 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-04-15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>196758</v>
+        <v>113652</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -884,18 +892,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>40159</v>
+        <v>56018</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -903,18 +911,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>113652</v>
+        <v>161874</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -922,56 +930,56 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>48540</v>
+        <v>143342</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>184564</v>
+        <v>20227</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>20227</v>
+        <v>34065</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -979,18 +987,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>34065</v>
+        <v>48540</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -998,18 +1006,18 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>29259</v>
+        <v>184564</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1028,7 +1036,7 @@
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>119424</v>
+        <v>120862</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2530</v>
+        <v>2431</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>92.09999999999999</v>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>95.7</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1204</v>
+        <v>1105</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>96.90000000000001</v>
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>727</v>
+        <v>692</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7069</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="13"/>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>29259</v>
+        <v>29731</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>201061</v>
+        <v>205276</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>40159</v>
+        <v>40211</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>143342</v>
+        <v>144782</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>120862</v>
+        <v>122297</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2431</v>
+        <v>2400</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>86.3</v>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>671</v>
+        <v>702</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="7">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>96.09999999999999</v>
@@ -563,14 +563,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1105</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>96.90000000000001</v>
@@ -579,14 +579,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>189</v>
+        <v>1131</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>96.90000000000001</v>
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>97.5</v>
@@ -618,10 +618,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6612</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="13"/>

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,110 +483,110 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.24.1</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2400</v>
+        <v>726</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86.3</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.24.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>702</v>
+        <v>990</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.7</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>93.7</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>96.09999999999999</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>183</v>
+        <v>1260</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>96.90000000000001</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.12.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1131</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="n">
         <v>96.90000000000001</v>
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>98.3</v>
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6633</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="13"/>
@@ -709,125 +709,123 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>449371</v>
+        <v>11128</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>19910</v>
+        <v>486214</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>77999</v>
+        <v>19910</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2023-11-06</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>34244</v>
+        <v>79953</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>170510</v>
+        <v>35355</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>52096</v>
+        <v>172690</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>59673</v>
+        <v>52096</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
@@ -835,18 +833,18 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>205276</v>
+        <v>65425</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -854,18 +852,18 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>40211</v>
+        <v>236471</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -873,18 +871,18 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>113652</v>
+        <v>41618</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -892,18 +890,18 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-04-15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>56018</v>
+        <v>117653</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -911,18 +909,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>161874</v>
+        <v>56018</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -930,56 +928,56 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>144782</v>
+        <v>161874</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>20227</v>
+        <v>154175</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>34065</v>
+        <v>20227</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -987,18 +985,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>48540</v>
+        <v>34065</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1006,56 +1004,56 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>184564</v>
+        <v>48540</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>122297</v>
+        <v>184564</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2018-05-26</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>14221</v>
+        <v>132352</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1063,18 +1061,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2018-05-26</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>23765</v>
+        <v>14221</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1082,15 +1080,34 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>23765</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="42"/>
     <row r="43"/>
     <row r="44"/>
     <row r="45"/>
     <row r="46"/>
+    <row r="47"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,39 +487,39 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>726</v>
+        <v>784</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>990</v>
+        <v>540</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>92</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>94.09999999999999</v>
@@ -531,30 +528,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>571</v>
+        <v>715</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>381</v>
+        <v>608</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>94.5</v>
@@ -570,10 +567,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1260</v>
+        <v>1454</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>95.7</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -602,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>97.40000000000001</v>
@@ -615,13 +612,13 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -631,10 +628,10 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5378</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="13"/>
@@ -650,464 +647,1889 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>29731</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>582</v>
+      </c>
+      <c r="E20" t="n">
+        <v>594</v>
+      </c>
+      <c r="F20" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>13028</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D22" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E22" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C23" t="n">
+        <v>898</v>
+      </c>
+      <c r="D23" t="n">
+        <v>303</v>
+      </c>
+      <c r="E23" t="n">
+        <v>412</v>
+      </c>
+      <c r="F23" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>19910</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>778486</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1043</v>
+      </c>
+      <c r="E24" t="n">
+        <v>972</v>
+      </c>
+      <c r="F24" t="n">
+        <v>781660</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>79953</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D25" t="n">
+        <v>507</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F25" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3296941</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2989</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5171</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3306406</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20.70.30.1</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>172690</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
-        </is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>35999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>112</v>
+      </c>
+      <c r="E27" t="n">
+        <v>67</v>
+      </c>
+      <c r="F27" t="n">
+        <v>36116</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20.50.0.5</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>52096</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2020-09-28</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4216368</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10356</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4601</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4229188</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20.70.4.2</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>127884</v>
+      </c>
+      <c r="C29" t="n">
+        <v>145</v>
+      </c>
+      <c r="D29" t="n">
+        <v>221</v>
+      </c>
+      <c r="E29" t="n">
+        <v>136</v>
+      </c>
+      <c r="F29" t="n">
+        <v>128250</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>236471</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2020-06-01</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D30" t="n">
+        <v>583</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>41618</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2020-04-15</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C31" t="n">
+        <v>421</v>
+      </c>
+      <c r="D31" t="n">
+        <v>70</v>
+      </c>
+      <c r="E31" t="n">
+        <v>390</v>
+      </c>
+      <c r="F31" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C33" t="n">
+        <v>445</v>
+      </c>
+      <c r="D33" t="n">
+        <v>530</v>
+      </c>
+      <c r="E33" t="n">
+        <v>410</v>
+      </c>
+      <c r="F33" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>161874</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2019-09-05</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E34" t="n">
+        <v>959</v>
+      </c>
+      <c r="F34" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>154175</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>68085</v>
+      </c>
+      <c r="C35" t="n">
+        <v>74</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>234</v>
+      </c>
+      <c r="F35" t="n">
+        <v>68192</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20.70.26.2</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="n">
-        <v>20227</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>2019-05-11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>65379</v>
+      </c>
+      <c r="C36" t="n">
+        <v>85</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>81</v>
+      </c>
+      <c r="F36" t="n">
+        <v>65489</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>20.70.19.1</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>34065</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C37" t="n">
+        <v>191</v>
+      </c>
+      <c r="D37" t="n">
+        <v>30</v>
+      </c>
+      <c r="E37" t="n">
+        <v>247</v>
+      </c>
+      <c r="F37" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>48540</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-16</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D38" t="n">
+        <v>656</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>184564</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.15.3</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1010381</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D39" t="n">
+        <v>414</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1123</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1011939</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>19.51.15.3</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2018-09-02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>132352</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-26</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>14221</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2018-05-08</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C41" t="n">
+        <v>428</v>
+      </c>
+      <c r="D41" t="n">
+        <v>216</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F41" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C42" t="n">
+        <v>66</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="n">
+        <v>68</v>
+      </c>
+      <c r="F42" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C43" t="n">
+        <v>93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>153</v>
+      </c>
+      <c r="F43" t="n">
+        <v>79953</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C44" t="n">
+        <v>468</v>
+      </c>
+      <c r="D44" t="n">
+        <v>178</v>
+      </c>
+      <c r="E44" t="n">
+        <v>568</v>
+      </c>
+      <c r="F44" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>184414</v>
+      </c>
+      <c r="C45" t="n">
+        <v>146</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>192</v>
+      </c>
+      <c r="F45" t="n">
+        <v>184564</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>20.70.5.2</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>154074</v>
+      </c>
+      <c r="C46" t="n">
+        <v>71</v>
+      </c>
+      <c r="D46" t="n">
+        <v>30</v>
+      </c>
+      <c r="E46" t="n">
+        <v>191</v>
+      </c>
+      <c r="F46" t="n">
+        <v>154175</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>20.70.12.5</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>172561</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>124</v>
+      </c>
+      <c r="E47" t="n">
+        <v>247</v>
+      </c>
+      <c r="F47" t="n">
+        <v>172690</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>29691</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18</v>
+      </c>
+      <c r="D48" t="n">
+        <v>22</v>
+      </c>
+      <c r="E48" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" t="n">
+        <v>29731</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>19.50.1.6</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>132340</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>113</v>
+      </c>
+      <c r="F49" t="n">
+        <v>132352</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>19.51.14.1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2018-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>41616</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>52</v>
+      </c>
+      <c r="F50" t="n">
+        <v>41618</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>19.51.29.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>236379</v>
+      </c>
+      <c r="C51" t="n">
+        <v>86</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>282</v>
+      </c>
+      <c r="F51" t="n">
+        <v>236471</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>19.51.30.1</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>48535</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>77</v>
+      </c>
+      <c r="F52" t="n">
+        <v>48540</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>20.70.8.1</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>52</v>
+      </c>
+      <c r="F53" t="n">
+        <v>34065</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>20.70.9.1</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>52091</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>68</v>
+      </c>
+      <c r="F54" t="n">
+        <v>52096</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>20220</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20227</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>20.70.10.2</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>161852</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>14</v>
+      </c>
+      <c r="E56" t="n">
+        <v>222</v>
+      </c>
+      <c r="F56" t="n">
+        <v>161874</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>20.70.11.3</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>100</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
-      <c r="B42" s="6" t="n">
+      <c r="B57" t="n">
+        <v>23761</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29</v>
+      </c>
+      <c r="F57" t="n">
         <v>23765</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>20.30.1.2</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>100</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>2018-01-09</t>
         </is>
       </c>
     </row>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>40</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14221</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 8265</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>20.50.0.4</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>100</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>72</v>
+      </c>
+      <c r="F59" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>19902</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>27</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19910</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>19.51.50.2</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>100</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>13025</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>42</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13028</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) dual band wireless-ac 7265</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>19.51.8.3</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100</v>
+      </c>
+      <c r="J61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>28</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100</v>
+      </c>
+      <c r="J62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>62</v>
+      </c>
+      <c r="F63" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C64" t="n">
+        <v>24</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14</v>
+      </c>
+      <c r="E64" t="n">
+        <v>151</v>
+      </c>
+      <c r="F64" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>80</v>
+      </c>
+      <c r="F65" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Costco_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,74 +487,74 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>91.40000000000001</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>540</v>
+        <v>685</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>715</v>
+        <v>543</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>94.09999999999999</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94.5</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -567,157 +567,205 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1454</v>
+        <v>1532</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.17.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.3.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>76</v>
+        <v>836</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>97</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.3.3</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>97.40000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.3.3</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>704</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>5586</v>
-      </c>
-    </row>
+      <c r="B10" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12"/>
     <row r="13"/>
     <row r="14"/>
     <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1869842</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2436</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1877648</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>adapter-driver</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>good sum</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>critical sum</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>warning sum</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>client count</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>total sum</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8170878</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15867</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>18436</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8199933</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>adapter</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>good roaming calculation (%)</t>
-        </is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.59999999999999</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>driver vintage</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376240</v>
+        <v>1611822</v>
       </c>
       <c r="C20" t="n">
-        <v>1104</v>
+        <v>4793</v>
       </c>
       <c r="D20" t="n">
-        <v>582</v>
+        <v>1136</v>
       </c>
       <c r="E20" t="n">
-        <v>594</v>
+        <v>2996</v>
       </c>
       <c r="F20" t="n">
-        <v>377926</v>
+        <v>1617751</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -726,7 +774,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -734,30 +782,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1786148</v>
+        <v>298304</v>
       </c>
       <c r="C21" t="n">
-        <v>3309</v>
+        <v>925</v>
       </c>
       <c r="D21" t="n">
-        <v>4386</v>
+        <v>303</v>
       </c>
       <c r="E21" t="n">
-        <v>2366</v>
+        <v>420</v>
       </c>
       <c r="F21" t="n">
-        <v>1793843</v>
+        <v>299532</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -766,7 +814,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -774,30 +822,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7568454</v>
+        <v>381616</v>
       </c>
       <c r="C22" t="n">
-        <v>14989</v>
+        <v>1106</v>
       </c>
       <c r="D22" t="n">
-        <v>13188</v>
+        <v>582</v>
       </c>
       <c r="E22" t="n">
-        <v>16900</v>
+        <v>601</v>
       </c>
       <c r="F22" t="n">
-        <v>7596631</v>
+        <v>383304</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -806,7 +854,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -814,39 +862,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290468</v>
+        <v>1771970</v>
       </c>
       <c r="C23" t="n">
-        <v>898</v>
+        <v>7123</v>
       </c>
       <c r="D23" t="n">
-        <v>303</v>
+        <v>634</v>
       </c>
       <c r="E23" t="n">
-        <v>412</v>
+        <v>2452</v>
       </c>
       <c r="F23" t="n">
-        <v>291669</v>
+        <v>1779727</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -854,7 +902,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
@@ -865,7 +913,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>778486</v>
+        <v>789985</v>
       </c>
       <c r="C24" t="n">
         <v>2131</v>
@@ -874,10 +922,10 @@
         <v>1043</v>
       </c>
       <c r="E24" t="n">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="F24" t="n">
-        <v>781660</v>
+        <v>793159</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -901,41 +949,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733616</v>
+        <v>37344</v>
       </c>
       <c r="C25" t="n">
-        <v>1647</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>507</v>
+        <v>112</v>
       </c>
       <c r="E25" t="n">
-        <v>1266</v>
+        <v>72</v>
       </c>
       <c r="F25" t="n">
-        <v>735770</v>
+        <v>37461</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>20.50.0.5</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>99.7</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2023-03-28</t>
-        </is>
+      <c r="J25" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
@@ -945,19 +991,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3296941</v>
+        <v>3413584</v>
       </c>
       <c r="C26" t="n">
-        <v>6476</v>
+        <v>6992</v>
       </c>
       <c r="D26" t="n">
         <v>2989</v>
       </c>
       <c r="E26" t="n">
-        <v>5171</v>
+        <v>5368</v>
       </c>
       <c r="F26" t="n">
-        <v>3306406</v>
+        <v>3423565</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -981,23 +1027,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35999</v>
+        <v>130754</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D27" t="n">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="E27" t="n">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="F27" t="n">
-        <v>36116</v>
+        <v>131121</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1006,14 +1052,16 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20.50.0.5</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>99.7</v>
       </c>
-      <c r="J27" t="n">
-        <v/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1023,19 +1071,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4216368</v>
+        <v>4467082</v>
       </c>
       <c r="C28" t="n">
-        <v>10356</v>
+        <v>10922</v>
       </c>
       <c r="D28" t="n">
         <v>2464</v>
       </c>
       <c r="E28" t="n">
-        <v>4601</v>
+        <v>4779</v>
       </c>
       <c r="F28" t="n">
-        <v>4229188</v>
+        <v>4480468</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1059,32 +1107,32 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127884</v>
+        <v>335610</v>
       </c>
       <c r="C29" t="n">
-        <v>145</v>
+        <v>495</v>
       </c>
       <c r="D29" t="n">
-        <v>221</v>
+        <v>530</v>
       </c>
       <c r="E29" t="n">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="F29" t="n">
-        <v>128250</v>
+        <v>336635</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1092,30 +1140,30 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1159949</v>
+        <v>750778</v>
       </c>
       <c r="C30" t="n">
-        <v>2346</v>
+        <v>1655</v>
       </c>
       <c r="D30" t="n">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="E30" t="n">
-        <v>1850</v>
+        <v>1290</v>
       </c>
       <c r="F30" t="n">
-        <v>1162878</v>
+        <v>752940</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1124,7 +1172,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1132,30 +1180,30 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192287</v>
+        <v>1021828</v>
       </c>
       <c r="C31" t="n">
-        <v>421</v>
+        <v>2379</v>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>1006</v>
       </c>
       <c r="E31" t="n">
-        <v>390</v>
+        <v>1021</v>
       </c>
       <c r="F31" t="n">
-        <v>192778</v>
+        <v>1025213</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1164,7 +1212,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1172,30 +1220,30 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1499724</v>
+        <v>100380</v>
       </c>
       <c r="C32" t="n">
-        <v>4069</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>1136</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
-        <v>2789</v>
+        <v>267</v>
       </c>
       <c r="F32" t="n">
-        <v>1504929</v>
+        <v>100674</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1204,7 +1252,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1212,30 +1260,30 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>330685</v>
+        <v>195464</v>
       </c>
       <c r="C33" t="n">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D33" t="n">
-        <v>530</v>
+        <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F33" t="n">
-        <v>331660</v>
+        <v>195964</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1244,7 +1292,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1252,70 +1300,70 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>938125</v>
+        <v>69883</v>
       </c>
       <c r="C34" t="n">
-        <v>2222</v>
+        <v>84</v>
       </c>
       <c r="D34" t="n">
-        <v>1006</v>
+        <v>33</v>
       </c>
       <c r="E34" t="n">
-        <v>959</v>
+        <v>238</v>
       </c>
       <c r="F34" t="n">
-        <v>941353</v>
+        <v>70000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>20.70.26.2</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68085</v>
+        <v>71102</v>
       </c>
       <c r="C35" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="F35" t="n">
-        <v>68192</v>
+        <v>71220</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1324,7 +1372,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>20.70.26.2</t>
+          <t>20.70.19.1</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1332,39 +1380,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>65379</v>
+        <v>1833336</v>
       </c>
       <c r="C36" t="n">
-        <v>85</v>
+        <v>2376</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>656</v>
       </c>
       <c r="E36" t="n">
-        <v>81</v>
+        <v>1899</v>
       </c>
       <c r="F36" t="n">
-        <v>65489</v>
+        <v>1836368</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>20.70.19.1</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1372,30 +1420,30 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95095</v>
+        <v>1237156</v>
       </c>
       <c r="C37" t="n">
-        <v>191</v>
+        <v>2499</v>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>583</v>
       </c>
       <c r="E37" t="n">
-        <v>247</v>
+        <v>1951</v>
       </c>
       <c r="F37" t="n">
-        <v>95316</v>
+        <v>1240238</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1404,7 +1452,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1412,30 +1460,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1731609</v>
+        <v>63994</v>
       </c>
       <c r="C38" t="n">
-        <v>2149</v>
+        <v>66</v>
       </c>
       <c r="D38" t="n">
-        <v>656</v>
+        <v>41</v>
       </c>
       <c r="E38" t="n">
-        <v>1812</v>
+        <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>1734414</v>
+        <v>64101</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1444,7 +1492,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1452,39 +1500,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.15.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1010381</v>
+        <v>81417</v>
       </c>
       <c r="C39" t="n">
-        <v>1144</v>
+        <v>107</v>
       </c>
       <c r="D39" t="n">
-        <v>414</v>
+        <v>25</v>
       </c>
       <c r="E39" t="n">
-        <v>1123</v>
+        <v>158</v>
       </c>
       <c r="F39" t="n">
-        <v>1011939</v>
+        <v>81549</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>19.51.15.3</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1492,7 +1540,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2018-09-02</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
@@ -1503,19 +1551,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1296766</v>
+        <v>1400496</v>
       </c>
       <c r="C40" t="n">
-        <v>1864</v>
+        <v>2029</v>
       </c>
       <c r="D40" t="n">
         <v>1075</v>
       </c>
       <c r="E40" t="n">
-        <v>2887</v>
+        <v>3210</v>
       </c>
       <c r="F40" t="n">
-        <v>1299705</v>
+        <v>1403600</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1543,19 +1591,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389283</v>
+        <v>393045</v>
       </c>
       <c r="C41" t="n">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D41" t="n">
         <v>216</v>
       </c>
       <c r="E41" t="n">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="F41" t="n">
-        <v>389927</v>
+        <v>393714</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1579,72 +1627,70 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63994</v>
+        <v>30392</v>
       </c>
       <c r="C42" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D42" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E42" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F42" t="n">
-        <v>64101</v>
+        <v>30433</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7265</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>19.50.1.6</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>2020-01-29</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J42" t="n">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.15.3</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79835</v>
+        <v>1061041</v>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>1151</v>
       </c>
       <c r="D43" t="n">
-        <v>25</v>
+        <v>414</v>
       </c>
       <c r="E43" t="n">
-        <v>153</v>
+        <v>1158</v>
       </c>
       <c r="F43" t="n">
-        <v>79953</v>
+        <v>1062606</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7265</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>19.51.15.3</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1652,7 +1698,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2018-09-02</t>
         </is>
       </c>
     </row>
@@ -1663,19 +1709,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>485568</v>
+        <v>509717</v>
       </c>
       <c r="C44" t="n">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="D44" t="n">
         <v>178</v>
       </c>
       <c r="E44" t="n">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F44" t="n">
-        <v>486214</v>
+        <v>510417</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1699,41 +1745,39 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>184414</v>
+        <v>11362</v>
       </c>
       <c r="C45" t="n">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
-        <v>184564</v>
+        <v>11369</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>20.70.5.2</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2018-11-25</t>
-        </is>
+      <c r="J45" t="n">
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1743,19 +1787,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154074</v>
+        <v>161052</v>
       </c>
       <c r="C46" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D46" t="n">
         <v>30</v>
       </c>
       <c r="E46" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F46" t="n">
-        <v>154175</v>
+        <v>161158</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1779,23 +1823,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>172561</v>
+        <v>198631</v>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="D47" t="n">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="F47" t="n">
-        <v>172690</v>
+        <v>198781</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1804,7 +1848,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>20.70.5.2</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1812,68 +1856,70 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.50.1.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29691</v>
+        <v>172561</v>
       </c>
       <c r="C48" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>124</v>
       </c>
       <c r="E48" t="n">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="F48" t="n">
-        <v>29731</v>
+        <v>172690</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7265</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19.50.1.6</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J48" t="n">
-        <v/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>132340</v>
+        <v>44740</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="F49" t="n">
-        <v>132352</v>
+        <v>44742</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1882,7 +1928,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>19.51.14.1</t>
+          <t>19.51.29.1</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -1890,30 +1936,30 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2018-05-26</t>
+          <t>2020-04-15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.29.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41616</v>
+        <v>267367</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>52</v>
+        <v>308</v>
       </c>
       <c r="F50" t="n">
-        <v>41618</v>
+        <v>267470</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1922,7 +1968,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>19.51.29.1</t>
+          <t>19.51.30.1</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -1930,39 +1976,39 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-06-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>236379</v>
+        <v>35502</v>
       </c>
       <c r="C51" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="F51" t="n">
-        <v>236471</v>
+        <v>35502</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7265</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>19.51.30.1</t>
+          <t>20.70.9.1</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -1970,30 +2016,30 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>48535</v>
+        <v>52091</v>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F52" t="n">
-        <v>48540</v>
+        <v>52096</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2002,7 +2048,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20.70.8.1</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2010,30 +2056,30 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>34065</v>
+        <v>48535</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F53" t="n">
-        <v>34065</v>
+        <v>48540</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2042,7 +2088,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>20.70.9.1</t>
+          <t>20.70.8.1</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2050,30 +2096,30 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>52091</v>
+        <v>23761</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F54" t="n">
-        <v>52096</v>
+        <v>23765</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2082,7 +2128,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>20.30.1.2</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2090,30 +2136,30 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2018-01-09</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20220</v>
+        <v>14221</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>20227</v>
+        <v>14221</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2122,7 +2168,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>20.70.10.2</t>
+          <t>20.50.0.4</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -2130,30 +2176,30 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>161852</v>
+        <v>20220</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>161874</v>
+        <v>20227</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2162,7 +2208,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>20.70.11.3</t>
+          <t>20.70.10.2</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2170,30 +2216,30 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>23761</v>
+        <v>161852</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="F57" t="n">
-        <v>23765</v>
+        <v>161874</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2202,7 +2248,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>20.30.1.2</t>
+          <t>20.70.11.3</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2210,39 +2256,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>14221</v>
+        <v>19902</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F58" t="n">
-        <v>14221</v>
+        <v>19910</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) dual band wireless-ac 7265</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>20.50.0.4</t>
+          <t>19.51.50.2</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2250,79 +2296,77 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2023-11-06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>65422</v>
+        <v>13025</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F59" t="n">
-        <v>65425</v>
+        <v>13028</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7265</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>19.51.8.3</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>100</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
-        </is>
+      <c r="J59" t="n">
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.50.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>19902</v>
+        <v>75454</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F60" t="n">
-        <v>19910</v>
+        <v>75457</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19.51.50.2</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2330,68 +2374,70 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.8.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>13025</v>
+        <v>56003</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F61" t="n">
-        <v>13028</v>
+        <v>56018</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 7265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>19.51.8.3</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
-      <c r="J61" t="n">
-        <v/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>11124</v>
+        <v>121310</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E62" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F62" t="n">
-        <v>11128</v>
+        <v>121350</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2400,36 +2446,38 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>100</v>
       </c>
-      <c r="J62" t="n">
-        <v/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>56003</v>
+        <v>35363</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F63" t="n">
-        <v>56018</v>
+        <v>35377</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2438,7 +2486,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2446,39 +2494,39 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 7265 - 19.51.14.1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>117615</v>
+        <v>142388</v>
       </c>
       <c r="C64" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F64" t="n">
-        <v>117653</v>
+        <v>142400</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 7265</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>19.51.14.1</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -2486,47 +2534,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3</v>
-      </c>
-      <c r="E65" t="n">
-        <v>80</v>
-      </c>
-      <c r="F65" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>100</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>2018-05-26</t>
         </is>
       </c>
     </row>
